--- a/GMLA loading analysis/overall.xlsx
+++ b/GMLA loading analysis/overall.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="100">
   <si>
     <t>2022-02</t>
   </si>
@@ -106,6 +106,9 @@
     <t>Ernest Fu/ Aalto Lo</t>
   </si>
   <si>
+    <t>Evelyn Wang</t>
+  </si>
+  <si>
     <t>Jason Hsu</t>
   </si>
   <si>
@@ -115,6 +118,15 @@
     <t>Catalyst Kart/Moto/Roadster</t>
   </si>
   <si>
+    <t>Descent S1 Buoy</t>
+  </si>
+  <si>
+    <t>EPIX PRO (Gen 2) 42mm</t>
+  </si>
+  <si>
+    <t>Instinct 2X Solar</t>
+  </si>
+  <si>
     <t>Instinct Crossover</t>
   </si>
   <si>
@@ -139,157 +151,151 @@
     <t>BlueNET Gateway</t>
   </si>
   <si>
+    <t>Dash Cam Live (LTE)</t>
+  </si>
+  <si>
+    <t>Delta SE</t>
+  </si>
+  <si>
+    <t>Edge 1040</t>
+  </si>
+  <si>
+    <t>Edge 540 840</t>
+  </si>
+  <si>
+    <t>Edge Explore 2</t>
+  </si>
+  <si>
+    <t>Foretrex 801/901</t>
+  </si>
+  <si>
+    <t>Garmin Powered Mount</t>
+  </si>
+  <si>
+    <t>Tacx NEO 3M</t>
+  </si>
+  <si>
+    <t>Tacx NEO Bike Plus</t>
+  </si>
+  <si>
+    <t>Xero B60i Laser Navigation Binoculars</t>
+  </si>
+  <si>
+    <t>Xero C1 Chronograph</t>
+  </si>
+  <si>
+    <t>Xero L60i Laser Navigator</t>
+  </si>
+  <si>
+    <t>eTrex SE</t>
+  </si>
+  <si>
+    <t>eTrex Solar</t>
+  </si>
+  <si>
+    <t>inReach Messenger</t>
+  </si>
+  <si>
+    <t>Approach S70</t>
+  </si>
+  <si>
+    <t>Approach S70S</t>
+  </si>
+  <si>
+    <t>Descent Mk3</t>
+  </si>
+  <si>
+    <t>Descent Mk3s</t>
+  </si>
+  <si>
+    <t>EPIX PRO (Gen 2) 47mm</t>
+  </si>
+  <si>
+    <t>EPIX PRO (Gen 2) 51mm</t>
+  </si>
+  <si>
+    <t>Enduro 2023</t>
+  </si>
+  <si>
+    <t>Marq (Gen 2)</t>
+  </si>
+  <si>
+    <t>fenix 7 Pro</t>
+  </si>
+  <si>
+    <t>fenix 7S Pro</t>
+  </si>
+  <si>
+    <t>fenix 7X Pro</t>
+  </si>
+  <si>
+    <t>Bounce</t>
+  </si>
+  <si>
+    <t>Forerunner 255 Small</t>
+  </si>
+  <si>
+    <t>Forerunner 265</t>
+  </si>
+  <si>
+    <t>Forerunner 955 and 955 Solar</t>
+  </si>
+  <si>
+    <t>Forerunner 965</t>
+  </si>
+  <si>
+    <t>Venu 3S</t>
+  </si>
+  <si>
+    <t>Venu Sq 2 Plus</t>
+  </si>
+  <si>
+    <t>Venu 3</t>
+  </si>
+  <si>
+    <t>LED Control Module</t>
+  </si>
+  <si>
+    <t>Panoptix PS70 - (SSMB)</t>
+  </si>
+  <si>
+    <t>ECHOMAP UHD2 (Keyed)</t>
+  </si>
+  <si>
+    <t>ECHOMAP UHD2 (Touch)</t>
+  </si>
+  <si>
+    <t>FUSION - WB675 Hide Away Stereo</t>
+  </si>
+  <si>
+    <t>Force Kraken Trolling Motor</t>
+  </si>
+  <si>
+    <t>GC 300 (PTZ) Camera</t>
+  </si>
+  <si>
+    <t>GHC 50</t>
+  </si>
+  <si>
+    <t>GMR xHD3 Magnetron Open Arrays</t>
+  </si>
+  <si>
+    <t>GPSMAP 9000</t>
+  </si>
+  <si>
+    <t>GPSMAP 9000 - 19"</t>
+  </si>
+  <si>
+    <t>LiveScope XR (LVS62)</t>
+  </si>
+  <si>
+    <t>RV Fixed Displays (7"/10")</t>
+  </si>
+  <si>
+    <t>Tread XL - Baja Race Edition</t>
+  </si>
+  <si>
     <t>BlueNET Switch</t>
-  </si>
-  <si>
-    <t>Dash Cam Live (LTE)</t>
-  </si>
-  <si>
-    <t>Delta SE</t>
-  </si>
-  <si>
-    <t>Descent S1 Buoy</t>
-  </si>
-  <si>
-    <t>Edge 1040</t>
-  </si>
-  <si>
-    <t>Edge 540 840</t>
-  </si>
-  <si>
-    <t>Edge Explore 2</t>
-  </si>
-  <si>
-    <t>Foretrex 801/901</t>
-  </si>
-  <si>
-    <t>Garmin Powered Mount</t>
-  </si>
-  <si>
-    <t>Tacx NEO 3M</t>
-  </si>
-  <si>
-    <t>Tacx NEO Bike Plus</t>
-  </si>
-  <si>
-    <t>Xero B60i Laser Navigation Binoculars</t>
-  </si>
-  <si>
-    <t>Xero C1 Chronograph</t>
-  </si>
-  <si>
-    <t>Xero L60i Laser Navigator</t>
-  </si>
-  <si>
-    <t>eTrex SE</t>
-  </si>
-  <si>
-    <t>eTrex Solar</t>
-  </si>
-  <si>
-    <t>inReach Messenger</t>
-  </si>
-  <si>
-    <t>Approach S70</t>
-  </si>
-  <si>
-    <t>Approach S70S</t>
-  </si>
-  <si>
-    <t>Descent Mk3</t>
-  </si>
-  <si>
-    <t>Descent Mk3s</t>
-  </si>
-  <si>
-    <t>EPIX PRO (Gen 2) 42mm</t>
-  </si>
-  <si>
-    <t>EPIX PRO (Gen 2) 47mm</t>
-  </si>
-  <si>
-    <t>EPIX PRO (Gen 2) 51mm</t>
-  </si>
-  <si>
-    <t>Enduro 2023</t>
-  </si>
-  <si>
-    <t>Instinct 2X Solar</t>
-  </si>
-  <si>
-    <t>Marq (Gen 2)</t>
-  </si>
-  <si>
-    <t>fenix 7 Pro</t>
-  </si>
-  <si>
-    <t>fenix 7S Pro</t>
-  </si>
-  <si>
-    <t>fenix 7X Pro</t>
-  </si>
-  <si>
-    <t>Bounce</t>
-  </si>
-  <si>
-    <t>Forerunner 255 Small</t>
-  </si>
-  <si>
-    <t>Forerunner 265</t>
-  </si>
-  <si>
-    <t>Forerunner 955 and 955 Solar</t>
-  </si>
-  <si>
-    <t>Forerunner 965</t>
-  </si>
-  <si>
-    <t>Venu 3S</t>
-  </si>
-  <si>
-    <t>Venu Sq 2 Plus</t>
-  </si>
-  <si>
-    <t>Venu 3</t>
-  </si>
-  <si>
-    <t>ECHOMAP UHD2 (Keyed)</t>
-  </si>
-  <si>
-    <t>ECHOMAP UHD2 (Touch)</t>
-  </si>
-  <si>
-    <t>FUSION - WB675 Hide Away Stereo</t>
-  </si>
-  <si>
-    <t>Force Kraken Trolling Motor</t>
-  </si>
-  <si>
-    <t>GC 300 (PTZ) Camera</t>
-  </si>
-  <si>
-    <t>GHC 50</t>
-  </si>
-  <si>
-    <t>GMR xHD3 Magnetron Open Arrays</t>
-  </si>
-  <si>
-    <t>GPSMAP 9000</t>
-  </si>
-  <si>
-    <t>LED Control Module</t>
-  </si>
-  <si>
-    <t>LiveScope XR (LVS62)</t>
-  </si>
-  <si>
-    <t>Panoptix PS70 - (SSMB)</t>
-  </si>
-  <si>
-    <t>RV Fixed Displays (7"/10")</t>
-  </si>
-  <si>
-    <t>Tread XL - Baja Race Edition</t>
   </si>
   <si>
     <t>Tire Temp Sensor</t>
@@ -665,7 +671,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Y67"/>
+  <dimension ref="A1:Y78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -753,7 +759,7 @@
         <v>25</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G2">
         <v>3</v>
@@ -771,52 +777,64 @@
     <row r="3" spans="1:25">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
       </c>
       <c r="I3">
-        <v>3</v>
-      </c>
-      <c r="K3">
+        <v>2</v>
+      </c>
+      <c r="M3">
+        <v>3</v>
+      </c>
+      <c r="O3">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:25">
       <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="H4">
+        <v>35</v>
+      </c>
+      <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
         <v>2</v>
       </c>
+      <c r="L4">
+        <v>3</v>
+      </c>
       <c r="N4">
-        <v>3</v>
-      </c>
-      <c r="R4">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:25">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F5">
-        <v>3</v>
-      </c>
-      <c r="H5">
+        <v>36</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>2</v>
+      </c>
+      <c r="N5">
+        <v>3</v>
+      </c>
+      <c r="P5">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:25">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F6">
-        <v>2</v>
+        <v>37</v>
       </c>
       <c r="I6">
         <v>3</v>
@@ -826,142 +844,151 @@
       </c>
     </row>
     <row r="7" spans="1:25">
-      <c r="A7" s="1" t="s">
-        <v>26</v>
-      </c>
+      <c r="A7" s="1"/>
       <c r="B7" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G7">
-        <v>2</v>
+        <v>38</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
       </c>
       <c r="I7">
-        <v>3</v>
-      </c>
-      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="N7">
+        <v>3</v>
+      </c>
+      <c r="R7">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:25">
       <c r="A8" s="1"/>
       <c r="B8" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="L8">
+        <v>39</v>
+      </c>
+      <c r="F8">
+        <v>3</v>
+      </c>
+      <c r="H8">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:25">
       <c r="A9" s="1"/>
       <c r="B9" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
+      </c>
+      <c r="F9">
+        <v>2</v>
       </c>
       <c r="I9">
-        <v>2</v>
-      </c>
-      <c r="L9">
-        <v>3</v>
-      </c>
-      <c r="O9">
+        <v>3</v>
+      </c>
+      <c r="K9">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:25">
-      <c r="A10" s="1"/>
+      <c r="A10" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="B10" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
+        <v>41</v>
       </c>
       <c r="G10">
         <v>2</v>
       </c>
-      <c r="O10">
-        <v>3</v>
-      </c>
-      <c r="Q10">
+      <c r="I10">
+        <v>3</v>
+      </c>
+      <c r="K10">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:25">
       <c r="A11" s="1"/>
       <c r="B11" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>2</v>
-      </c>
-      <c r="O11">
-        <v>3</v>
-      </c>
-      <c r="Q11">
+        <v>42</v>
+      </c>
+      <c r="L11">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:25">
       <c r="A12" s="1"/>
       <c r="B12" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D12">
-        <v>2</v>
-      </c>
-      <c r="H12">
-        <v>3</v>
-      </c>
-      <c r="J12">
+        <v>43</v>
+      </c>
+      <c r="I12">
+        <v>2</v>
+      </c>
+      <c r="L12">
+        <v>3</v>
+      </c>
+      <c r="O12">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:25">
       <c r="A13" s="1"/>
       <c r="B13" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E13">
-        <v>3</v>
-      </c>
-      <c r="F13">
+        <v>44</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>2</v>
+      </c>
+      <c r="O13">
+        <v>3</v>
+      </c>
+      <c r="Q13">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:25">
       <c r="A14" s="1"/>
       <c r="B14" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
+      </c>
+      <c r="D14">
+        <v>2</v>
       </c>
       <c r="H14">
-        <v>1</v>
-      </c>
-      <c r="I14">
-        <v>2</v>
-      </c>
-      <c r="M14">
-        <v>3</v>
-      </c>
-      <c r="O14">
+        <v>3</v>
+      </c>
+      <c r="J14">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:25">
       <c r="A15" s="1"/>
       <c r="B15" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:25">
       <c r="A16" s="1"/>
       <c r="B16" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="N16">
+        <v>34</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
+      <c r="I16">
+        <v>2</v>
+      </c>
+      <c r="M16">
+        <v>3</v>
+      </c>
+      <c r="O16">
         <v>1</v>
       </c>
     </row>
@@ -970,7 +997,7 @@
       <c r="B17" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="F17">
+      <c r="E17">
         <v>1</v>
       </c>
     </row>
@@ -979,15 +1006,6 @@
       <c r="B18" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="G18">
-        <v>1</v>
-      </c>
-      <c r="J18">
-        <v>2</v>
-      </c>
-      <c r="M18">
-        <v>3</v>
-      </c>
       <c r="N18">
         <v>1</v>
       </c>
@@ -997,7 +1015,7 @@
       <c r="B19" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="H19">
+      <c r="F19">
         <v>1</v>
       </c>
     </row>
@@ -1006,16 +1024,16 @@
       <c r="B20" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="K20">
-        <v>1</v>
-      </c>
-      <c r="R20">
-        <v>3</v>
-      </c>
-      <c r="S20">
+      <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="J20">
+        <v>2</v>
+      </c>
+      <c r="M20">
+        <v>3</v>
+      </c>
+      <c r="N20">
         <v>1</v>
       </c>
     </row>
@@ -1024,10 +1042,7 @@
       <c r="B21" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="E21">
-        <v>3</v>
-      </c>
-      <c r="G21">
+      <c r="H21">
         <v>1</v>
       </c>
     </row>
@@ -1039,16 +1054,13 @@
       <c r="F22">
         <v>1</v>
       </c>
-      <c r="P22">
-        <v>1</v>
-      </c>
-      <c r="U22">
-        <v>2</v>
-      </c>
-      <c r="X22">
-        <v>3</v>
-      </c>
-      <c r="Y22">
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="R22">
+        <v>3</v>
+      </c>
+      <c r="S22">
         <v>1</v>
       </c>
     </row>
@@ -1057,16 +1069,10 @@
       <c r="B23" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C23">
-        <v>1</v>
+      <c r="E23">
+        <v>3</v>
       </c>
       <c r="G23">
-        <v>2</v>
-      </c>
-      <c r="J23">
-        <v>3</v>
-      </c>
-      <c r="L23">
         <v>1</v>
       </c>
     </row>
@@ -1078,13 +1084,16 @@
       <c r="F24">
         <v>1</v>
       </c>
-      <c r="N24">
-        <v>2</v>
-      </c>
-      <c r="Q24">
-        <v>3</v>
-      </c>
-      <c r="S24">
+      <c r="P24">
+        <v>1</v>
+      </c>
+      <c r="U24">
+        <v>2</v>
+      </c>
+      <c r="X24">
+        <v>3</v>
+      </c>
+      <c r="Y24">
         <v>1</v>
       </c>
     </row>
@@ -1093,13 +1102,16 @@
       <c r="B25" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-      <c r="I25">
-        <v>3</v>
-      </c>
-      <c r="K25">
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>2</v>
+      </c>
+      <c r="J25">
+        <v>3</v>
+      </c>
+      <c r="L25">
         <v>1</v>
       </c>
     </row>
@@ -1108,19 +1120,16 @@
       <c r="B26" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="E26">
-        <v>1</v>
-      </c>
-      <c r="H26">
-        <v>1</v>
-      </c>
-      <c r="L26">
-        <v>2</v>
+      <c r="F26">
+        <v>1</v>
       </c>
       <c r="N26">
-        <v>3</v>
-      </c>
-      <c r="P26">
+        <v>2</v>
+      </c>
+      <c r="Q26">
+        <v>3</v>
+      </c>
+      <c r="S26">
         <v>1</v>
       </c>
     </row>
@@ -1130,23 +1139,27 @@
         <v>57</v>
       </c>
       <c r="E27">
-        <v>3</v>
-      </c>
-      <c r="G27">
+        <v>1</v>
+      </c>
+      <c r="I27">
+        <v>3</v>
+      </c>
+      <c r="K27">
         <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:25">
-      <c r="A28" s="1" t="s">
-        <v>27</v>
-      </c>
+      <c r="A28" s="1"/>
       <c r="B28" s="1" t="s">
         <v>58</v>
       </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
       <c r="H28">
         <v>1</v>
       </c>
-      <c r="K28">
+      <c r="L28">
         <v>2</v>
       </c>
       <c r="N28">
@@ -1161,34 +1174,30 @@
       <c r="B29" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="H29">
-        <v>1</v>
-      </c>
-      <c r="K29">
-        <v>2</v>
-      </c>
-      <c r="N29">
-        <v>3</v>
-      </c>
-      <c r="P29">
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="G29">
         <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:25">
-      <c r="A30" s="1"/>
+      <c r="A30" s="1" t="s">
+        <v>27</v>
+      </c>
       <c r="B30" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="M30">
-        <v>1</v>
-      </c>
-      <c r="R30">
-        <v>2</v>
-      </c>
-      <c r="T30">
-        <v>3</v>
-      </c>
-      <c r="V30">
+      <c r="H30">
+        <v>1</v>
+      </c>
+      <c r="K30">
+        <v>2</v>
+      </c>
+      <c r="N30">
+        <v>3</v>
+      </c>
+      <c r="P30">
         <v>1</v>
       </c>
     </row>
@@ -1200,13 +1209,13 @@
       <c r="H31">
         <v>1</v>
       </c>
-      <c r="M31">
-        <v>2</v>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="N31">
+        <v>3</v>
       </c>
       <c r="P31">
-        <v>3</v>
-      </c>
-      <c r="R31">
         <v>1</v>
       </c>
     </row>
@@ -1215,16 +1224,16 @@
       <c r="B32" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="G32">
-        <v>1</v>
-      </c>
-      <c r="I32">
-        <v>2</v>
-      </c>
-      <c r="L32">
-        <v>3</v>
-      </c>
-      <c r="N32">
+      <c r="M32">
+        <v>1</v>
+      </c>
+      <c r="R32">
+        <v>2</v>
+      </c>
+      <c r="T32">
+        <v>3</v>
+      </c>
+      <c r="V32">
         <v>1</v>
       </c>
     </row>
@@ -1233,23 +1242,23 @@
       <c r="B33" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="G33">
-        <v>1</v>
-      </c>
-      <c r="I33">
-        <v>2</v>
-      </c>
-      <c r="L33">
-        <v>3</v>
-      </c>
-      <c r="N33">
+      <c r="H33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>2</v>
+      </c>
+      <c r="P33">
+        <v>3</v>
+      </c>
+      <c r="R33">
         <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:20">
       <c r="A34" s="1"/>
       <c r="B34" s="1" t="s">
-        <v>64</v>
+        <v>35</v>
       </c>
       <c r="G34">
         <v>1</v>
@@ -1267,94 +1276,94 @@
     <row r="35" spans="1:20">
       <c r="A35" s="1"/>
       <c r="B35" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="M35">
-        <v>1</v>
-      </c>
-      <c r="S35">
-        <v>3</v>
-      </c>
-      <c r="T35">
+        <v>64</v>
+      </c>
+      <c r="G35">
+        <v>1</v>
+      </c>
+      <c r="I35">
+        <v>2</v>
+      </c>
+      <c r="L35">
+        <v>3</v>
+      </c>
+      <c r="N35">
         <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:20">
       <c r="A36" s="1"/>
       <c r="B36" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D36">
-        <v>1</v>
-      </c>
-      <c r="J36">
-        <v>1</v>
+        <v>65</v>
+      </c>
+      <c r="G36">
+        <v>1</v>
+      </c>
+      <c r="I36">
+        <v>2</v>
       </c>
       <c r="L36">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N36">
-        <v>3</v>
-      </c>
-      <c r="P36">
         <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:20">
       <c r="A37" s="1"/>
       <c r="B37" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="G37">
-        <v>2</v>
-      </c>
-      <c r="I37">
-        <v>3</v>
-      </c>
-      <c r="K37">
+        <v>66</v>
+      </c>
+      <c r="M37">
+        <v>1</v>
+      </c>
+      <c r="S37">
+        <v>3</v>
+      </c>
+      <c r="T37">
         <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:20">
       <c r="A38" s="1"/>
       <c r="B38" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="F38">
-        <v>1</v>
-      </c>
-      <c r="H38">
-        <v>2</v>
-      </c>
-      <c r="K38">
-        <v>3</v>
-      </c>
-      <c r="M38">
+        <v>36</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+      <c r="J38">
+        <v>1</v>
+      </c>
+      <c r="L38">
+        <v>2</v>
+      </c>
+      <c r="N38">
+        <v>3</v>
+      </c>
+      <c r="P38">
         <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:20">
       <c r="A39" s="1"/>
       <c r="B39" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G39">
-        <v>1</v>
-      </c>
-      <c r="H39">
-        <v>2</v>
+        <v>2</v>
+      </c>
+      <c r="I39">
+        <v>3</v>
       </c>
       <c r="K39">
-        <v>3</v>
-      </c>
-      <c r="M39">
         <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:20">
       <c r="A40" s="1"/>
       <c r="B40" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F40">
         <v>1</v>
@@ -1370,47 +1379,56 @@
       </c>
     </row>
     <row r="41" spans="1:20">
-      <c r="A41" s="1" t="s">
-        <v>28</v>
-      </c>
+      <c r="A41" s="1"/>
       <c r="B41" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="I41">
+        <v>69</v>
+      </c>
+      <c r="G41">
+        <v>1</v>
+      </c>
+      <c r="H41">
+        <v>2</v>
+      </c>
+      <c r="K41">
+        <v>3</v>
+      </c>
+      <c r="M41">
         <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:20">
       <c r="A42" s="1"/>
       <c r="B42" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="E42">
+        <v>70</v>
+      </c>
+      <c r="F42">
+        <v>1</v>
+      </c>
+      <c r="H42">
+        <v>2</v>
+      </c>
+      <c r="K42">
+        <v>3</v>
+      </c>
+      <c r="M42">
         <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:20">
-      <c r="A43" s="1"/>
+      <c r="A43" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="B43" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="G43">
-        <v>1</v>
-      </c>
-      <c r="J43">
-        <v>2</v>
-      </c>
-      <c r="L43">
-        <v>3</v>
-      </c>
-      <c r="N43">
+        <v>71</v>
+      </c>
+      <c r="I43">
         <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:20">
       <c r="A44" s="1"/>
       <c r="B44" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E44">
         <v>1</v>
@@ -1419,12 +1437,12 @@
     <row r="45" spans="1:20">
       <c r="A45" s="1"/>
       <c r="B45" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G45">
         <v>1</v>
       </c>
-      <c r="K45">
+      <c r="J45">
         <v>2</v>
       </c>
       <c r="L45">
@@ -1437,323 +1455,515 @@
     <row r="46" spans="1:20">
       <c r="A46" s="1"/>
       <c r="B46" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="L46">
-        <v>2</v>
-      </c>
-      <c r="O46">
-        <v>3</v>
-      </c>
-      <c r="R46">
+        <v>74</v>
+      </c>
+      <c r="E46">
         <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:20">
       <c r="A47" s="1"/>
       <c r="B47" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="O47">
-        <v>3</v>
-      </c>
-      <c r="R47">
+        <v>75</v>
+      </c>
+      <c r="G47">
+        <v>1</v>
+      </c>
+      <c r="K47">
+        <v>2</v>
+      </c>
+      <c r="L47">
+        <v>3</v>
+      </c>
+      <c r="N47">
         <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:20">
-      <c r="A48" s="1" t="s">
-        <v>29</v>
-      </c>
+      <c r="A48" s="1"/>
       <c r="B48" s="1" t="s">
-        <v>78</v>
+        <v>50</v>
+      </c>
+      <c r="G48">
+        <v>1</v>
+      </c>
+      <c r="J48">
+        <v>2</v>
       </c>
       <c r="M48">
-        <v>2</v>
-      </c>
-      <c r="O48">
-        <v>3</v>
-      </c>
-      <c r="R48">
+        <v>3</v>
+      </c>
+      <c r="N48">
         <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:24">
-      <c r="A49" s="1" t="s">
-        <v>30</v>
-      </c>
+      <c r="A49" s="1"/>
       <c r="B49" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C49">
-        <v>6</v>
-      </c>
-      <c r="F49">
-        <v>2</v>
+        <v>38</v>
+      </c>
+      <c r="H49">
+        <v>1</v>
+      </c>
+      <c r="I49">
+        <v>2</v>
+      </c>
+      <c r="N49">
+        <v>3</v>
+      </c>
+      <c r="R49">
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:24">
       <c r="A50" s="1"/>
       <c r="B50" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="G50">
-        <v>6</v>
-      </c>
-      <c r="I50">
-        <v>9</v>
-      </c>
-      <c r="K50">
-        <v>3</v>
+        <v>76</v>
+      </c>
+      <c r="L50">
+        <v>2</v>
+      </c>
+      <c r="O50">
+        <v>3</v>
+      </c>
+      <c r="R50">
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:24">
       <c r="A51" s="1"/>
       <c r="B51" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="J51">
-        <v>3</v>
-      </c>
-      <c r="K51">
+        <v>77</v>
+      </c>
+      <c r="O51">
+        <v>3</v>
+      </c>
+      <c r="R51">
         <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:24">
       <c r="A52" s="1"/>
       <c r="B52" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C52">
-        <v>1</v>
+        <v>68</v>
+      </c>
+      <c r="F52">
+        <v>1</v>
+      </c>
+      <c r="H52">
+        <v>2</v>
+      </c>
+      <c r="K52">
+        <v>3</v>
       </c>
       <c r="M52">
-        <v>2</v>
-      </c>
-      <c r="P52">
-        <v>3</v>
-      </c>
-      <c r="R52">
         <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:24">
       <c r="A53" s="1"/>
       <c r="B53" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="I53">
-        <v>3</v>
-      </c>
-      <c r="J53">
+        <v>70</v>
+      </c>
+      <c r="F53">
+        <v>1</v>
+      </c>
+      <c r="H53">
+        <v>2</v>
+      </c>
+      <c r="K53">
+        <v>3</v>
+      </c>
+      <c r="M53">
         <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:24">
-      <c r="A54" s="1"/>
+      <c r="A54" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="B54" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="E54">
+        <v>78</v>
+      </c>
+      <c r="M54">
+        <v>2</v>
+      </c>
+      <c r="O54">
+        <v>3</v>
+      </c>
+      <c r="R54">
         <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:24">
-      <c r="A55" s="1"/>
+      <c r="A55" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="B55" s="1" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="F55">
         <v>1</v>
       </c>
-      <c r="I55">
-        <v>2</v>
-      </c>
-      <c r="L55">
-        <v>3</v>
-      </c>
-      <c r="N55">
+      <c r="P55">
+        <v>1</v>
+      </c>
+      <c r="T55">
+        <v>2</v>
+      </c>
+      <c r="W55">
+        <v>3</v>
+      </c>
+      <c r="X55">
         <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:24">
       <c r="A56" s="1"/>
       <c r="B56" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="F56">
-        <v>4</v>
-      </c>
-      <c r="K56">
-        <v>8</v>
+        <v>80</v>
+      </c>
+      <c r="I56">
+        <v>2</v>
+      </c>
+      <c r="L56">
+        <v>3</v>
       </c>
       <c r="N56">
-        <v>12</v>
-      </c>
-      <c r="Q56">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:24">
-      <c r="A57" s="1"/>
+      <c r="A57" s="1" t="s">
+        <v>31</v>
+      </c>
       <c r="B57" s="1" t="s">
-        <v>87</v>
+        <v>81</v>
+      </c>
+      <c r="C57">
+        <v>6</v>
       </c>
       <c r="F57">
-        <v>1</v>
-      </c>
-      <c r="P57">
-        <v>1</v>
-      </c>
-      <c r="T57">
-        <v>2</v>
-      </c>
-      <c r="W57">
-        <v>3</v>
-      </c>
-      <c r="X57">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:24">
       <c r="A58" s="1"/>
       <c r="B58" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="D58">
-        <v>3</v>
-      </c>
-      <c r="F58">
-        <v>1</v>
+        <v>82</v>
+      </c>
+      <c r="G58">
+        <v>6</v>
+      </c>
+      <c r="I58">
+        <v>9</v>
+      </c>
+      <c r="K58">
+        <v>3</v>
       </c>
     </row>
     <row r="59" spans="1:24">
       <c r="A59" s="1"/>
       <c r="B59" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="I59">
-        <v>2</v>
-      </c>
-      <c r="L59">
-        <v>3</v>
-      </c>
-      <c r="N59">
+        <v>83</v>
+      </c>
+      <c r="J59">
+        <v>3</v>
+      </c>
+      <c r="K59">
         <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:24">
       <c r="A60" s="1"/>
       <c r="B60" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="G60">
-        <v>1</v>
-      </c>
-      <c r="J60">
-        <v>2</v>
+        <v>84</v>
+      </c>
+      <c r="C60">
+        <v>1</v>
       </c>
       <c r="M60">
-        <v>3</v>
-      </c>
-      <c r="N60">
+        <v>2</v>
+      </c>
+      <c r="P60">
+        <v>3</v>
+      </c>
+      <c r="R60">
         <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:24">
       <c r="A61" s="1"/>
       <c r="B61" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="H61">
+        <v>85</v>
+      </c>
+      <c r="I61">
+        <v>3</v>
+      </c>
+      <c r="J61">
         <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:24">
-      <c r="A62" s="1" t="s">
-        <v>31</v>
-      </c>
+      <c r="A62" s="1"/>
       <c r="B62" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="I62">
-        <v>1</v>
-      </c>
-      <c r="N62">
-        <v>3</v>
-      </c>
-      <c r="P62">
+        <v>86</v>
+      </c>
+      <c r="E62">
         <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:24">
       <c r="A63" s="1"/>
       <c r="B63" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="D63">
-        <v>3</v>
+        <v>87</v>
+      </c>
+      <c r="F63">
+        <v>1</v>
+      </c>
+      <c r="I63">
+        <v>2</v>
       </c>
       <c r="L63">
+        <v>3</v>
+      </c>
+      <c r="N63">
         <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:24">
       <c r="A64" s="1"/>
       <c r="B64" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="G64">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:15">
+        <v>88</v>
+      </c>
+      <c r="F64">
+        <v>3</v>
+      </c>
+      <c r="K64">
+        <v>6</v>
+      </c>
+      <c r="N64">
+        <v>9</v>
+      </c>
+      <c r="Q64">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:24">
       <c r="A65" s="1"/>
       <c r="B65" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="D65">
-        <v>12</v>
+        <v>89</v>
       </c>
       <c r="F65">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="66" spans="1:15">
+        <v>1</v>
+      </c>
+      <c r="K65">
+        <v>2</v>
+      </c>
+      <c r="N65">
+        <v>3</v>
+      </c>
+      <c r="Q65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:24">
       <c r="A66" s="1"/>
       <c r="B66" s="1" t="s">
-        <v>96</v>
+        <v>79</v>
       </c>
       <c r="F66">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="67" spans="1:15">
+        <v>1</v>
+      </c>
+      <c r="P66">
+        <v>1</v>
+      </c>
+      <c r="T66">
+        <v>2</v>
+      </c>
+      <c r="W66">
+        <v>3</v>
+      </c>
+      <c r="X66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:24">
       <c r="A67" s="1"/>
       <c r="B67" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D67">
+        <v>3</v>
+      </c>
+      <c r="F67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:24">
+      <c r="A68" s="1"/>
+      <c r="B68" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="I68">
+        <v>2</v>
+      </c>
+      <c r="L68">
+        <v>3</v>
+      </c>
+      <c r="N68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:24">
+      <c r="A69" s="1"/>
+      <c r="B69" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="G69">
+        <v>1</v>
+      </c>
+      <c r="J69">
+        <v>2</v>
+      </c>
+      <c r="M69">
+        <v>3</v>
+      </c>
+      <c r="N69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:24">
+      <c r="A70" s="1"/>
+      <c r="B70" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="H70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:24">
+      <c r="A71" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C71">
+        <v>1</v>
+      </c>
+      <c r="G71">
+        <v>2</v>
+      </c>
+      <c r="O71">
+        <v>3</v>
+      </c>
+      <c r="Q71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:24">
+      <c r="A72" s="1"/>
+      <c r="B72" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C72">
+        <v>1</v>
+      </c>
+      <c r="G72">
+        <v>2</v>
+      </c>
+      <c r="O72">
+        <v>3</v>
+      </c>
+      <c r="Q72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:24">
+      <c r="A73" s="1"/>
+      <c r="B73" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="I73">
+        <v>1</v>
+      </c>
+      <c r="N73">
+        <v>3</v>
+      </c>
+      <c r="P73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:24">
+      <c r="A74" s="1"/>
+      <c r="B74" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D74">
+        <v>3</v>
+      </c>
+      <c r="L74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:24">
+      <c r="A75" s="1"/>
+      <c r="B75" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="G75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:24">
+      <c r="A76" s="1"/>
+      <c r="B76" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="F67">
-        <v>1</v>
-      </c>
-      <c r="I67">
-        <v>2</v>
-      </c>
-      <c r="L67">
-        <v>3</v>
-      </c>
-      <c r="O67">
+      <c r="D76">
+        <v>12</v>
+      </c>
+      <c r="F76">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="1:24">
+      <c r="A77" s="1"/>
+      <c r="B77" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F77">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="78" spans="1:24">
+      <c r="A78" s="1"/>
+      <c r="B78" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F78">
+        <v>1</v>
+      </c>
+      <c r="I78">
+        <v>2</v>
+      </c>
+      <c r="L78">
+        <v>3</v>
+      </c>
+      <c r="O78">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="A7:A27"/>
-    <mergeCell ref="A28:A40"/>
-    <mergeCell ref="A41:A47"/>
-    <mergeCell ref="A49:A61"/>
-    <mergeCell ref="A62:A67"/>
+  <mergeCells count="7">
+    <mergeCell ref="A2:A9"/>
+    <mergeCell ref="A10:A29"/>
+    <mergeCell ref="A30:A42"/>
+    <mergeCell ref="A43:A53"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="A57:A70"/>
+    <mergeCell ref="A71:A78"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
